--- a/TSM.xlsx
+++ b/TSM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4912E70-328E-42C7-9D3B-7E23B099145B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85740BE-6414-4A23-AAE7-E3768EDCA2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27525" yWindow="1650" windowWidth="27210" windowHeight="17880" activeTab="1" xr2:uid="{1FCDE9DA-E937-4AB9-B319-0E6E3C36BAB8}"/>
+    <workbookView xWindow="-31755" yWindow="2070" windowWidth="26475" windowHeight="13410" activeTab="1" xr2:uid="{1FCDE9DA-E937-4AB9-B319-0E6E3C36BAB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -380,12 +380,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -987,10 +981,10 @@
   <dimension ref="A1:IA48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AI24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT11" sqref="AT11"/>
+      <selection pane="bottomRight" activeCell="AS33" sqref="AS33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/TSM.xlsx
+++ b/TSM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85740BE-6414-4A23-AAE7-E3768EDCA2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94513C8F-7B6A-4052-B72F-C7C70A624299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31755" yWindow="2070" windowWidth="26475" windowHeight="13410" activeTab="1" xr2:uid="{1FCDE9DA-E937-4AB9-B319-0E6E3C36BAB8}"/>
+    <workbookView xWindow="-36780" yWindow="2265" windowWidth="24765" windowHeight="17025" activeTab="1" xr2:uid="{1FCDE9DA-E937-4AB9-B319-0E6E3C36BAB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -896,13 +896,13 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
         <v>14</v>
       </c>
@@ -910,7 +910,7 @@
         <v>206.4</v>
       </c>
     </row>
-    <row r="3" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>15</v>
       </c>
@@ -918,7 +918,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="4" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>0</v>
       </c>
@@ -926,7 +926,7 @@
         <v>25931</v>
       </c>
     </row>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>18</v>
       </c>
@@ -935,7 +935,7 @@
         <v>1070431.6800000002</v>
       </c>
     </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>13</v>
       </c>
@@ -944,7 +944,7 @@
         <v>28135135</v>
       </c>
     </row>
-    <row r="7" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>16</v>
       </c>
@@ -953,7 +953,7 @@
         <v>67370</v>
       </c>
     </row>
-    <row r="8" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>17</v>
       </c>
@@ -962,7 +962,7 @@
         <v>30421</v>
       </c>
     </row>
-    <row r="9" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>1</v>
       </c>
@@ -981,28 +981,28 @@
   <dimension ref="A1:IA48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AI24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS33" sqref="AS33"/>
+      <selection pane="bottomRight" activeCell="AS26" sqref="AM26:AS26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="44" width="9.140625" style="3"/>
-    <col min="45" max="46" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="50" width="9.85546875" style="3" customWidth="1"/>
-    <col min="71" max="71" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="44" width="9.1796875" style="3"/>
+    <col min="45" max="46" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="50" width="9.81640625" style="3" customWidth="1"/>
+    <col min="71" max="71" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>94</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>95</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>97</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>96</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>98</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>99</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="11" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:68" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>5073847.8918364635</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>2333970.0302447728</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>2739877.8615916907</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>271236.69775814068</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>122100.26811382972</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>393336.9658719704</v>
       </c>
     </row>
-    <row r="17" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:235" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>2346540.8957197201</v>
       </c>
     </row>
-    <row r="18" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:235" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>114068.94093000001</v>
       </c>
     </row>
-    <row r="19" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:235" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>2460609.8366497201</v>
       </c>
     </row>
-    <row r="20" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:235" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>369091.47549745801</v>
       </c>
     </row>
-    <row r="21" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:235" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>11018718.884374892</v>
       </c>
     </row>
-    <row r="22" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:235" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>80.662508987042116</v>
       </c>
     </row>
-    <row r="23" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:235" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -4958,7 +4958,7 @@
       <c r="BR23" s="2"/>
       <c r="BS23" s="2"/>
     </row>
-    <row r="24" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:235" x14ac:dyDescent="0.25">
       <c r="BR24" t="s">
         <v>71</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="2:235" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:235" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>32</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:235" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>31161858.063186485</v>
       </c>
     </row>
-    <row r="28" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:235" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>90</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>1326.4229999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:235" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>76</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>2294.9319999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:235" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>79</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>249.97399999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:235" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>78</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>292.88400000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:235" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:235" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>77</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>63.456000000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>81</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>3071.5990000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>80</v>
       </c>
@@ -5527,13 +5527,13 @@
         <v>192.81299999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:50" x14ac:dyDescent="0.25">
       <c r="AS35" s="4">
         <f>SUM(AS29:AS34)</f>
         <v>6165.6580000000004</v>
       </c>
     </row>
-    <row r="37" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>84</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>70.819999999999993</v>
       </c>
     </row>
-    <row r="38" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>85</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>125.13200000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>86</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>207.45599999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>87</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>618.18600000000004</v>
       </c>
     </row>
-    <row r="41" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>88</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>968.5089999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>89</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>153.63300000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>83</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>4021.922</v>
       </c>
     </row>
-    <row r="44" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>82</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>6165.6579999999994</v>
       </c>
     </row>
-    <row r="46" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
@@ -5658,7 +5658,7 @@
       <c r="AW46" s="4"/>
       <c r="AX46" s="4"/>
     </row>
-    <row r="47" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
@@ -5717,7 +5717,7 @@
       <c r="AW47" s="4"/>
       <c r="AX47" s="4"/>
     </row>
-    <row r="48" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>93</v>
       </c>
